--- a/output/temu_price_update_6.xlsx
+++ b/output/temu_price_update_6.xlsx
@@ -475,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -631,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -670,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -683,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -696,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -709,7 +709,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -722,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -761,7 +761,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -774,7 +774,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -787,7 +787,7 @@
         <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -865,7 +865,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -878,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -904,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -956,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -969,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1034,7 +1034,7 @@
         <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -1047,7 +1047,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1086,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1112,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1138,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -1151,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1190,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1268,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1294,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -1320,7 +1320,7 @@
         <v>17.5</v>
       </c>
       <c r="C67" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="68">
@@ -1333,7 +1333,7 @@
         <v>17.5</v>
       </c>
       <c r="C68" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="69">
@@ -1346,7 +1346,7 @@
         <v>17.5</v>
       </c>
       <c r="C69" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="70">
@@ -1359,7 +1359,7 @@
         <v>17.5</v>
       </c>
       <c r="C70" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="71">
@@ -1372,7 +1372,7 @@
         <v>17.5</v>
       </c>
       <c r="C71" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="72">
@@ -1385,7 +1385,7 @@
         <v>17.5</v>
       </c>
       <c r="C72" t="n">
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="73">
@@ -1398,7 +1398,7 @@
         <v>48</v>
       </c>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74">
@@ -1411,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -1424,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -1450,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -1463,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -1476,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -1489,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -1502,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -1515,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -1554,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -1567,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -1606,7 +1606,7 @@
         <v>30</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -1619,7 +1619,7 @@
         <v>42</v>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91">
@@ -1632,7 +1632,7 @@
         <v>42</v>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
@@ -1645,7 +1645,7 @@
         <v>42</v>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
@@ -1658,7 +1658,7 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
@@ -1671,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -1697,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -1710,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -1723,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -1736,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -1749,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
@@ -1762,7 +1762,7 @@
         <v>34</v>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
@@ -1775,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -1788,7 +1788,7 @@
         <v>18</v>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -1801,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -1814,7 +1814,7 @@
         <v>19</v>
       </c>
       <c r="C105" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -1827,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="C106" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
@@ -1840,7 +1840,7 @@
         <v>2.5</v>
       </c>
       <c r="C107" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="108">
@@ -1853,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -1866,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -1879,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -1892,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -1905,7 +1905,7 @@
         <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -1918,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="C113" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -1931,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="C114" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -1944,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -1957,7 +1957,7 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
@@ -1970,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="C117" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
@@ -1983,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -2009,7 +2009,7 @@
         <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -2022,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="C121" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2035,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="C122" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
@@ -2048,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
@@ -2061,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="C124" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
@@ -2074,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="C125" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
@@ -2087,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="C126" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
@@ -2100,7 +2100,7 @@
         <v>9</v>
       </c>
       <c r="C127" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="C128" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="C129" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
@@ -2139,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
@@ -2152,7 +2152,7 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
@@ -2165,7 +2165,7 @@
         <v>9</v>
       </c>
       <c r="C132" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
@@ -2178,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="C133" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
@@ -2191,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="C134" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135">
@@ -2204,7 +2204,7 @@
         <v>35</v>
       </c>
       <c r="C135" t="n">
-        <v>17.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
@@ -2217,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="C136" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -2243,7 +2243,7 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -2269,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="C140" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -2282,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="C141" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -2295,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -2308,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -2321,7 +2321,7 @@
         <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -2334,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -2347,7 +2347,7 @@
         <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -2360,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="C147" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -2373,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="C148" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -2399,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -2412,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="C151" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -2425,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -2438,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="C153" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -2451,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="C155" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -2477,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -2490,7 +2490,7 @@
         <v>30</v>
       </c>
       <c r="C157" t="n">
-        <v>9.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
@@ -2503,7 +2503,7 @@
         <v>2.5</v>
       </c>
       <c r="C158" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="159">
@@ -2516,7 +2516,7 @@
         <v>30</v>
       </c>
       <c r="C159" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
@@ -2529,7 +2529,7 @@
         <v>27</v>
       </c>
       <c r="C160" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161">
@@ -2542,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="C161" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -2555,7 +2555,7 @@
         <v>6.5</v>
       </c>
       <c r="C162" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="163">
@@ -2568,7 +2568,7 @@
         <v>6.5</v>
       </c>
       <c r="C163" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="164">
@@ -2581,7 +2581,7 @@
         <v>6.5</v>
       </c>
       <c r="C164" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="165">
@@ -2594,7 +2594,7 @@
         <v>6.5</v>
       </c>
       <c r="C165" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="166">
@@ -2607,7 +2607,7 @@
         <v>6.5</v>
       </c>
       <c r="C166" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="167">
@@ -2620,7 +2620,7 @@
         <v>6.5</v>
       </c>
       <c r="C167" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="168">
@@ -2633,7 +2633,7 @@
         <v>6.5</v>
       </c>
       <c r="C168" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="169">
@@ -2646,7 +2646,7 @@
         <v>22</v>
       </c>
       <c r="C169" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
@@ -2659,7 +2659,7 @@
         <v>22</v>
       </c>
       <c r="C170" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171">
@@ -2672,7 +2672,7 @@
         <v>10</v>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -2685,7 +2685,7 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -2698,7 +2698,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -2711,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -2724,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="C175" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -2737,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="C176" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -2750,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="C177" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -2763,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -2776,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="C179" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -2789,7 +2789,7 @@
         <v>7</v>
       </c>
       <c r="C180" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -2802,7 +2802,7 @@
         <v>7</v>
       </c>
       <c r="C181" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -2815,7 +2815,7 @@
         <v>7</v>
       </c>
       <c r="C182" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="C183" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -2841,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="C184" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -2854,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="C185" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
@@ -2867,7 +2867,7 @@
         <v>15</v>
       </c>
       <c r="C186" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
@@ -2880,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="C187" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
@@ -2893,7 +2893,7 @@
         <v>15</v>
       </c>
       <c r="C188" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -2906,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="C189" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
@@ -2919,7 +2919,7 @@
         <v>17</v>
       </c>
       <c r="C190" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191">
@@ -2932,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="C191" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -2945,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="C192" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
@@ -2958,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="C193" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -2971,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -2984,7 +2984,7 @@
         <v>6.5</v>
       </c>
       <c r="C195" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="196">
@@ -2997,7 +2997,7 @@
         <v>2</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -3010,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="C197" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198">
@@ -3023,7 +3023,7 @@
         <v>17</v>
       </c>
       <c r="C198" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199">
@@ -3036,7 +3036,7 @@
         <v>17</v>
       </c>
       <c r="C199" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200">
@@ -3049,7 +3049,7 @@
         <v>13.5</v>
       </c>
       <c r="C200" t="n">
-        <v>6.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="201">
@@ -3062,7 +3062,7 @@
         <v>13.5</v>
       </c>
       <c r="C201" t="n">
-        <v>6.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="202">
@@ -3075,7 +3075,7 @@
         <v>13.5</v>
       </c>
       <c r="C202" t="n">
-        <v>6.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="203">
@@ -3088,7 +3088,7 @@
         <v>8.5</v>
       </c>
       <c r="C203" t="n">
-        <v>4.25</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="204">
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -3114,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -3127,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -3140,7 +3140,7 @@
         <v>1.5</v>
       </c>
       <c r="C207" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="208">
@@ -3153,7 +3153,7 @@
         <v>1.5</v>
       </c>
       <c r="C208" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="209">
@@ -3166,7 +3166,7 @@
         <v>1.5</v>
       </c>
       <c r="C209" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="210">
@@ -3179,7 +3179,7 @@
         <v>1.5</v>
       </c>
       <c r="C210" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="211">
@@ -3192,7 +3192,7 @@
         <v>1.5</v>
       </c>
       <c r="C211" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="212">
@@ -3205,7 +3205,7 @@
         <v>1.5</v>
       </c>
       <c r="C212" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="213">
@@ -3218,7 +3218,7 @@
         <v>1.5</v>
       </c>
       <c r="C213" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="214">
@@ -3231,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -3244,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -3257,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
@@ -3270,7 +3270,7 @@
         <v>8</v>
       </c>
       <c r="C217" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -3296,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220">
@@ -3309,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="C220" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221">
@@ -3322,7 +3322,7 @@
         <v>9</v>
       </c>
       <c r="C221" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
@@ -3335,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
@@ -3348,7 +3348,7 @@
         <v>48</v>
       </c>
       <c r="C223" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="224">
@@ -3361,7 +3361,7 @@
         <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
@@ -3374,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
@@ -3387,7 +3387,7 @@
         <v>6.5</v>
       </c>
       <c r="C226" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="227">
@@ -3400,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="C227" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -3413,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="C228" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229">
@@ -3426,7 +3426,7 @@
         <v>19</v>
       </c>
       <c r="C229" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
@@ -3439,7 +3439,7 @@
         <v>19</v>
       </c>
       <c r="C230" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231">
@@ -3452,7 +3452,7 @@
         <v>19</v>
       </c>
       <c r="C231" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
@@ -3465,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
@@ -3478,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -3491,7 +3491,7 @@
         <v>8</v>
       </c>
       <c r="C234" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -3504,7 +3504,7 @@
         <v>8</v>
       </c>
       <c r="C235" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
@@ -3517,7 +3517,7 @@
         <v>8</v>
       </c>
       <c r="C236" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237">
@@ -3530,7 +3530,7 @@
         <v>13</v>
       </c>
       <c r="C237" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
@@ -3543,7 +3543,7 @@
         <v>18</v>
       </c>
       <c r="C238" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
@@ -3569,7 +3569,7 @@
         <v>18</v>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -3582,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="C241" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -3595,7 +3595,7 @@
         <v>18</v>
       </c>
       <c r="C242" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
@@ -3608,7 +3608,7 @@
         <v>18</v>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244">
@@ -3621,7 +3621,7 @@
         <v>18</v>
       </c>
       <c r="C244" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -3634,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="C245" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
@@ -3647,7 +3647,7 @@
         <v>18</v>
       </c>
       <c r="C246" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
@@ -3660,7 +3660,7 @@
         <v>18</v>
       </c>
       <c r="C247" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -3673,7 +3673,7 @@
         <v>18</v>
       </c>
       <c r="C248" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
@@ -3686,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="C249" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
@@ -3699,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -3712,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="C251" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
@@ -3725,7 +3725,7 @@
         <v>9</v>
       </c>
       <c r="C252" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
